--- a/doc_ex2/doc/Algo2 BM2 ts2 comparison.xlsx
+++ b/doc_ex2/doc/Algo2 BM2 ts2 comparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -382,6 +382,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -389,12 +409,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,12 +448,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -748,7 +770,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E2" sqref="E2:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -764,26 +786,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -800,7 +822,7 @@
       <c r="D2">
         <v>35.209395148851598</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>692.92409586027998</v>
       </c>
       <c r="F2" t="s">
@@ -834,7 +856,7 @@
         <f>(L2+M2+N2)/3</f>
         <v>0.29870334361675549</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="4">
         <f>AVERAGE(O2:O50)</f>
         <v>0.38443893964819953</v>
       </c>
@@ -852,7 +874,7 @@
       <c r="D3">
         <v>35.210244218587903</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="15">
         <v>700.33593950608997</v>
       </c>
       <c r="F3" t="s">
@@ -900,7 +922,7 @@
       <c r="D4">
         <v>35.210121883926703</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F4" t="s">
@@ -948,7 +970,7 @@
       <c r="D5">
         <v>35.210121883926703</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F5" t="s">
@@ -996,7 +1018,7 @@
       <c r="D6">
         <v>35.209889614264497</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>706.64372884850502</v>
       </c>
       <c r="F6" t="s">
@@ -1044,7 +1066,7 @@
       <c r="D7">
         <v>35.209719721035199</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>696.59464873055799</v>
       </c>
       <c r="F7" t="s">
@@ -1092,7 +1114,7 @@
       <c r="D8">
         <v>35.210195200337999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <v>697.40046798052799</v>
       </c>
       <c r="F8" t="s">
@@ -1140,7 +1162,7 @@
       <c r="D9">
         <v>35.210121883926703</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F9" t="s">
@@ -1188,7 +1210,7 @@
       <c r="D10">
         <v>35.210121883926703</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F10" t="s">
@@ -1236,7 +1258,7 @@
       <c r="D11">
         <v>35.210121883926703</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F11" t="s">
@@ -1284,7 +1306,7 @@
       <c r="D12">
         <v>35.210270642633198</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="15">
         <v>697.38443829417895</v>
       </c>
       <c r="F12" t="s">
@@ -1332,7 +1354,7 @@
       <c r="D13">
         <v>35.209429861830202</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="15">
         <v>692.90304860886397</v>
       </c>
       <c r="F13" t="s">
@@ -1380,7 +1402,7 @@
       <c r="D14">
         <v>35.210024139137197</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="15">
         <v>696.98780725220399</v>
       </c>
       <c r="F14" t="s">
@@ -1428,7 +1450,7 @@
       <c r="D15">
         <v>35.210379392030802</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="15">
         <v>707.18396109450703</v>
       </c>
       <c r="F15" t="s">
@@ -1476,7 +1498,7 @@
       <c r="D16">
         <v>35.209422260562803</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="15">
         <v>697.55132586141997</v>
       </c>
       <c r="F16" t="s">
@@ -1524,7 +1546,7 @@
       <c r="D17">
         <v>35.209823352022802</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="15">
         <v>689.58099035908901</v>
       </c>
       <c r="F17" t="s">
@@ -1572,7 +1594,7 @@
       <c r="D18">
         <v>35.210191332947502</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>699.07366078581299</v>
       </c>
       <c r="F18" t="s">
@@ -1620,7 +1642,7 @@
       <c r="D19">
         <v>35.209597096198401</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="15">
         <v>696.85161076365102</v>
       </c>
       <c r="F19" t="s">
@@ -1668,7 +1690,7 @@
       <c r="D20">
         <v>35.210164133311501</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="15">
         <v>699.25236462267901</v>
       </c>
       <c r="F20" t="s">
@@ -1716,7 +1738,7 @@
       <c r="D21">
         <v>35.209404917623502</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="15">
         <v>697.68431846620103</v>
       </c>
       <c r="F21" t="s">
@@ -1764,7 +1786,7 @@
       <c r="D22">
         <v>35.209161412473001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="15">
         <v>696.198946076722</v>
       </c>
       <c r="F22" t="s">
@@ -1812,7 +1834,7 @@
       <c r="D23">
         <v>35.209456956992298</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="15">
         <v>705.63740016895497</v>
       </c>
       <c r="F23" t="s">
@@ -1860,7 +1882,7 @@
       <c r="D24">
         <v>35.209634977579199</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="15">
         <v>697.03067598269399</v>
       </c>
       <c r="F24" t="s">
@@ -1908,7 +1930,7 @@
       <c r="D25">
         <v>35.209794898989401</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="15">
         <v>693.55608158644804</v>
       </c>
       <c r="F25" t="s">
@@ -1956,7 +1978,7 @@
       <c r="D26">
         <v>35.209316439883402</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="15">
         <v>709.94575299058999</v>
       </c>
       <c r="F26" t="s">
@@ -2004,7 +2026,7 @@
       <c r="D27">
         <v>35.2090798657173</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="15">
         <v>706.101938871475</v>
       </c>
       <c r="F27" t="s">
@@ -2052,7 +2074,7 @@
       <c r="D28">
         <v>35.209996803654398</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="15">
         <v>706.26961399345305</v>
       </c>
       <c r="F28" t="s">
@@ -2100,7 +2122,7 @@
       <c r="D29">
         <v>35.208944939192598</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="15">
         <v>693.21060029618604</v>
       </c>
       <c r="F29" t="s">
@@ -2148,7 +2170,7 @@
       <c r="D30">
         <v>35.209025631204398</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="15">
         <v>699.49470821525699</v>
       </c>
       <c r="F30" t="s">
@@ -2196,7 +2218,7 @@
       <c r="D31">
         <v>35.209429861830202</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="15">
         <v>692.90304860886397</v>
       </c>
       <c r="F31" t="s">
@@ -2244,7 +2266,7 @@
       <c r="D32">
         <v>35.2095163557549</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="15">
         <v>714.22255634425096</v>
       </c>
       <c r="F32" t="s">
@@ -2292,7 +2314,7 @@
       <c r="D33">
         <v>35.210113204581901</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="15">
         <v>702.59584433243901</v>
       </c>
       <c r="F33" t="s">
@@ -2340,7 +2362,7 @@
       <c r="D34">
         <v>35.210121883926703</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F34" t="s">
@@ -2388,7 +2410,7 @@
       <c r="D35">
         <v>35.209340874695599</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="15">
         <v>692.95700348881701</v>
       </c>
       <c r="F35" t="s">
@@ -2436,7 +2458,7 @@
       <c r="D36">
         <v>35.209478514145601</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="15">
         <v>707.38633395615796</v>
       </c>
       <c r="F36" t="s">
@@ -2484,7 +2506,7 @@
       <c r="D37">
         <v>35.209843355352298</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="15">
         <v>698.41752527371295</v>
       </c>
       <c r="F37" t="s">
@@ -2532,7 +2554,7 @@
       <c r="D38">
         <v>35.209718434886902</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="15">
         <v>711.71506857713405</v>
       </c>
       <c r="F38" t="s">
@@ -2580,7 +2602,7 @@
       <c r="D39">
         <v>35.210055914245899</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="15">
         <v>692.76013458682905</v>
       </c>
       <c r="F39" t="s">
@@ -2628,7 +2650,7 @@
       <c r="D40">
         <v>35.209844480541598</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="15">
         <v>689.92297712418701</v>
       </c>
       <c r="F40" t="s">
@@ -2676,7 +2698,7 @@
       <c r="D41">
         <v>35.210121883926703</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="15">
         <v>697.41604596731599</v>
       </c>
       <c r="F41" t="s">
@@ -2724,7 +2746,7 @@
       <c r="D42">
         <v>35.210444022946</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="15">
         <v>705.10488600320105</v>
       </c>
       <c r="F42" t="s">
@@ -2772,7 +2794,7 @@
       <c r="D43">
         <v>35.210225200654101</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="15">
         <v>700.72678986798405</v>
       </c>
       <c r="F43" t="s">
@@ -2820,7 +2842,7 @@
       <c r="D44">
         <v>35.209858828111301</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="15">
         <v>698.51776800188497</v>
       </c>
       <c r="F44" t="s">
@@ -2868,7 +2890,7 @@
       <c r="D45">
         <v>35.209882823518399</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="15">
         <v>706.48458358651101</v>
       </c>
       <c r="F45" t="s">
@@ -2916,7 +2938,7 @@
       <c r="D46">
         <v>35.209982507943202</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="15">
         <v>699.32560239259101</v>
       </c>
       <c r="F46" t="s">
@@ -2964,7 +2986,7 @@
       <c r="D47">
         <v>35.2093041444408</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="15">
         <v>710.65499245150602</v>
       </c>
       <c r="F47" t="s">
@@ -3012,7 +3034,7 @@
       <c r="D48">
         <v>35.209866516522901</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="15">
         <v>704.44122232627603</v>
       </c>
       <c r="F48" t="s">
@@ -3060,7 +3082,7 @@
       <c r="D49">
         <v>35.209747021357899</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="15">
         <v>706.587713637153</v>
       </c>
       <c r="F49" t="s">
@@ -3108,7 +3130,7 @@
       <c r="D50">
         <v>35.209960508394801</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="15">
         <v>704.37504504991603</v>
       </c>
       <c r="F50" t="s">
